--- a/biology/Microbiologie/Tropheryma_whipplei/Tropheryma_whipplei.xlsx
+++ b/biology/Microbiologie/Tropheryma_whipplei/Tropheryma_whipplei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tropheryma whipplei est une espèce de bactérie mise en évidence pour la première fois en 1991, par PCR. C'est une bactérie bacille à gram +. C'est une bactérie intracellulaire stricte qui ne peut pas survivre ou se répliquer en dehors du cytoplasme d'une cellule eucaryote. 
 Elle est l'agent causal de la maladie de Whipple classique et de ses autres formes. Elle cible les macrophages et survit donc à pH acide.
@@ -513,7 +525,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
